--- a/_data/movies_list.xlsx
+++ b/_data/movies_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Github Websites\poonos\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EDE312-14BC-43C0-A6DE-3416BEB8864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990A74B-80FD-4885-955C-91C87E452628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
   <si>
     <t>Film</t>
   </si>
@@ -520,6 +520,27 @@
   </si>
   <si>
     <t>WALL-E</t>
+  </si>
+  <si>
+    <t>The Hunger Games</t>
+  </si>
+  <si>
+    <t>Catching Fire</t>
+  </si>
+  <si>
+    <t>Mockingjay Part 1</t>
+  </si>
+  <si>
+    <t>Mockingjay Part 2</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>Rabbit Proof Fence</t>
+  </si>
+  <si>
+    <t>Year 4 during class</t>
   </si>
 </sst>
 </file>
@@ -880,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E819B72-1A8B-4A63-9C2E-B064374829C1}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2785,6 +2806,79 @@
         <v>4</v>
       </c>
     </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>167</v>
+      </c>
+      <c r="B124">
+        <v>2002</v>
+      </c>
+      <c r="C124">
+        <v>2012</v>
+      </c>
+      <c r="E124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125">
+        <v>2012</v>
+      </c>
+      <c r="C125">
+        <v>2015</v>
+      </c>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126">
+        <v>2013</v>
+      </c>
+      <c r="C126">
+        <v>2015</v>
+      </c>
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127">
+        <v>2014</v>
+      </c>
+      <c r="C127">
+        <v>2015</v>
+      </c>
+      <c r="D127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128">
+        <v>2015</v>
+      </c>
+      <c r="C128">
+        <v>2015</v>
+      </c>
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E117">
     <sortCondition descending="1" ref="C1:C117"/>

--- a/_data/movies_list.xlsx
+++ b/_data/movies_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Github Websites\poonos\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990A74B-80FD-4885-955C-91C87E452628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F936C-8986-4E13-878A-06BEC78CE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
   <si>
     <t>Film</t>
   </si>
@@ -384,9 +384,6 @@
     <t>The Post</t>
   </si>
   <si>
-    <t>And then there were none</t>
-  </si>
-  <si>
     <t>Context</t>
   </si>
   <si>
@@ -432,24 +429,12 @@
     <t>Year 8 Chinese</t>
   </si>
   <si>
-    <t>Year 4 excursion to IMAX</t>
-  </si>
-  <si>
     <t>Diary of a Wimpy Kid: Rodrick Rules</t>
   </si>
   <si>
-    <t>Year 6 Graduation</t>
-  </si>
-  <si>
     <t>Transformers: Dark of the Moon</t>
   </si>
   <si>
-    <t>Year 6 primary school film</t>
-  </si>
-  <si>
-    <t>Year 5 primary school film</t>
-  </si>
-  <si>
     <t>National Treasure</t>
   </si>
   <si>
@@ -459,9 +444,6 @@
     <t>Year 10 Biology</t>
   </si>
   <si>
-    <t>Early primary school</t>
-  </si>
-  <si>
     <t>The Grinch</t>
   </si>
   <si>
@@ -489,18 +471,9 @@
     <t>The Lion, The Witch and the Wardrobe</t>
   </si>
   <si>
-    <t>Year 1 concert break</t>
-  </si>
-  <si>
-    <t>Primary school</t>
-  </si>
-  <si>
     <t>First watched</t>
   </si>
   <si>
-    <t>also watched in Year 9 CE</t>
-  </si>
-  <si>
     <t>In cinemas, also at Year 6 camp</t>
   </si>
   <si>
@@ -540,7 +513,52 @@
     <t>Rabbit Proof Fence</t>
   </si>
   <si>
-    <t>Year 4 during class</t>
+    <t>And Then There Were None</t>
+  </si>
+  <si>
+    <t>Also in Year 9 CE</t>
+  </si>
+  <si>
+    <t>Year 12 CE</t>
+  </si>
+  <si>
+    <t>The Passion of the Christ*</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet</t>
+  </si>
+  <si>
+    <t>Romeo + Juliet</t>
+  </si>
+  <si>
+    <t>Gnomeo and Juliet</t>
+  </si>
+  <si>
+    <t>At primary school, Year 4</t>
+  </si>
+  <si>
+    <t>At primary school, early years</t>
+  </si>
+  <si>
+    <t>Rewatched many times</t>
+  </si>
+  <si>
+    <t>At primary school, Year 3</t>
+  </si>
+  <si>
+    <t>At primary school, Year 1 Concert break</t>
+  </si>
+  <si>
+    <t>Year 4 school excursion to IMAX</t>
+  </si>
+  <si>
+    <t>At primary school, Year 5</t>
+  </si>
+  <si>
+    <t>At primary school, Year 6</t>
+  </si>
+  <si>
+    <t>In cinemas, at Year 6 Graduation</t>
   </si>
 </sst>
 </file>
@@ -901,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E819B72-1A8B-4A63-9C2E-B064374829C1}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,103 +942,103 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2021</v>
       </c>
       <c r="C2">
-        <v>2014</v>
+        <v>2021</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C3">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="C4">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="C5">
-        <v>2012</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
+        <v>2021</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C6">
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1031,30 +1049,30 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -1062,30 +1080,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C10">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -1093,97 +1114,109 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>2019</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>2020</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
+        <v>2019</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B14">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="C14">
         <v>2020</v>
       </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>1974</v>
+        <v>2018</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C18">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1191,16 +1224,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1208,16 +1241,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C20">
-        <v>2019</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
+        <v>2018</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1225,139 +1255,157 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
+        <v>2018</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B22">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C22">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C23">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B25">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="C25">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B26">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="C26">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="B27">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="C27">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>1937</v>
+        <v>2016</v>
       </c>
       <c r="C28">
-        <v>2019</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
+        <v>2016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C29">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="D29" t="s">
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1365,16 +1413,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C31">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1382,13 +1430,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B32">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C32">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1396,33 +1444,27 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="B33">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C33">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="B34">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C34">
-        <v>2018</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
+        <v>2016</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1430,13 +1472,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C35">
-        <v>2018</v>
+        <v>2015</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1444,233 +1489,236 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C36">
-        <v>2018</v>
+        <v>2015</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C37">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B38">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B39">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="C39">
-        <v>2018</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
+        <v>2015</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="B40">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="C40">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>2002</v>
+        <v>2014</v>
       </c>
       <c r="C41">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>2001</v>
+        <v>2014</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B43">
-        <v>1997</v>
+        <v>2014</v>
       </c>
       <c r="C43">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B44">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C44">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B45">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="C45">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B46">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="C46">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C47">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C48">
-        <v>2017</v>
+        <v>2013</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="B49">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C49">
-        <v>2017</v>
-      </c>
-      <c r="D49" t="s">
-        <v>114</v>
+        <v>2015</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B50">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C50">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1692,306 +1740,306 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B52">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C52">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B53">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C53">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B54">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C54">
         <v>2017</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B55">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="C55">
         <v>2017</v>
       </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="C56">
-        <v>2017</v>
+        <v>2013</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>1981</v>
+        <v>2011</v>
       </c>
       <c r="C57">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="B58">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C58">
-        <v>2016</v>
-      </c>
-      <c r="D58" t="s">
-        <v>85</v>
+        <v>2011</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B59">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C59">
-        <v>2016</v>
-      </c>
-      <c r="D59" t="s">
-        <v>85</v>
+        <v>2011</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C60">
-        <v>2016</v>
-      </c>
-      <c r="D60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B61">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C61">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C62">
         <v>2016</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C63">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B64">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="C64">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B65">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C65">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B66">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C66">
         <v>2016</v>
       </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C67">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="C68">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="C69">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C70">
-        <v>2015</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
+        <v>2016</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B71">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C71">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -1999,16 +2047,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B72">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C72">
-        <v>2015</v>
-      </c>
-      <c r="D72" t="s">
-        <v>120</v>
+        <v>2008</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -2016,190 +2061,184 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B73">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C73">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B74">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="C74">
-        <v>2015</v>
+        <v>2016</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B75">
+        <v>2007</v>
+      </c>
+      <c r="C75">
         <v>2014</v>
       </c>
-      <c r="C75">
-        <v>2015</v>
-      </c>
-      <c r="D75" t="s">
-        <v>120</v>
-      </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="B76">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C77">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B78">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="C78">
-        <v>2015</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
+        <v>2019</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B79">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="C79">
-        <v>2015</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
+        <v>2019</v>
+      </c>
+      <c r="E79" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B80">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="C80">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="C81">
-        <v>2015</v>
-      </c>
-      <c r="D81" t="s">
-        <v>95</v>
+        <v>2013</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B82">
-        <v>1981</v>
+        <v>2006</v>
       </c>
       <c r="C82">
-        <v>2015</v>
-      </c>
-      <c r="D82" t="s">
-        <v>97</v>
+        <v>2009</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>1980</v>
+        <v>2005</v>
       </c>
       <c r="C83">
-        <v>2015</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
-        <v>112</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B84">
-        <v>1977</v>
+        <v>2005</v>
       </c>
       <c r="C84">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B85">
         <v>2005</v>
@@ -2213,66 +2252,69 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="B86">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="C86">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B87">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="C87">
-        <v>2014</v>
+        <v>2012</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="B88">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C88">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B89">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C89">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B90">
         <v>2004</v>
@@ -2281,247 +2323,226 @@
         <v>2014</v>
       </c>
       <c r="E90" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B91">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C91">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D91" t="s">
         <v>85</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B92">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="C92">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="B93">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C93">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="E93" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B94">
-        <v>1982</v>
+        <v>2003</v>
       </c>
       <c r="C94">
-        <v>2012</v>
-      </c>
-      <c r="E94" t="s">
-        <v>152</v>
+        <v>2019</v>
+      </c>
+      <c r="D94" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B95">
-        <v>1965</v>
+        <v>2003</v>
       </c>
       <c r="C95">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B96">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C96">
         <v>2012</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B97">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C97">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="B98">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C98">
         <v>2012</v>
       </c>
-      <c r="D98" t="s">
-        <v>85</v>
-      </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B99">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C99">
         <v>2012</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B100">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C100">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B101">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C101">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C102">
-        <v>2012</v>
-      </c>
-      <c r="D102" t="s">
-        <v>120</v>
+        <v>2017</v>
+      </c>
+      <c r="E102" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B103">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="C103">
-        <v>2012</v>
-      </c>
-      <c r="D103" t="s">
-        <v>120</v>
-      </c>
-      <c r="E103" t="s">
-        <v>141</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B104">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C104">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E104" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B105">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C105">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2535,92 +2556,83 @@
         <v>2010</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B107">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="C107">
-        <v>2010</v>
-      </c>
-      <c r="D107" t="s">
-        <v>120</v>
+        <v>2016</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B108">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="C108">
-        <v>2010</v>
-      </c>
-      <c r="D108" t="s">
-        <v>126</v>
+        <v>2015</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B109">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C109">
-        <v>2010</v>
+        <v>2012</v>
+      </c>
+      <c r="D109" t="s">
+        <v>119</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="B110">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="C110">
-        <v>2010</v>
-      </c>
-      <c r="D110" t="s">
-        <v>120</v>
+        <v>2018</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="B111">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="C111">
-        <v>2010</v>
-      </c>
-      <c r="D111" t="s">
-        <v>120</v>
+        <v>2017</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2634,184 +2646,199 @@
         <v>2009</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="B113">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="C113">
-        <v>2009</v>
+        <v>2012</v>
+      </c>
+      <c r="D113" t="s">
+        <v>119</v>
       </c>
       <c r="E113" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B114">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="C114">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="C115">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="D115" t="s">
+        <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B116">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C116">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="B117">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="C117">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="D117" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E117" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B118">
-        <v>2017</v>
+        <v>1989</v>
       </c>
       <c r="C118">
         <v>2017</v>
       </c>
       <c r="D118" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="C119">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="E119" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="B120">
-        <v>2016</v>
+        <v>1986</v>
       </c>
       <c r="C120">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E120" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="B121">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="C121">
-        <v>2015</v>
+        <v>2008</v>
+      </c>
+      <c r="D121" t="s">
+        <v>74</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="B122">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="C122">
         <v>2015</v>
       </c>
+      <c r="D122" t="s">
+        <v>95</v>
+      </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="B123">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="C123">
-        <v>2008</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
+        <v>2016</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B124">
-        <v>2002</v>
+        <v>1982</v>
       </c>
       <c r="C124">
         <v>2012</v>
@@ -2822,66 +2849,131 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B125">
-        <v>2012</v>
+        <v>1981</v>
       </c>
       <c r="C125">
-        <v>2015</v>
-      </c>
-      <c r="D125" t="s">
-        <v>166</v>
+        <v>2017</v>
+      </c>
+      <c r="E125" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="B126">
-        <v>2013</v>
+        <v>1981</v>
       </c>
       <c r="C126">
         <v>2015</v>
       </c>
       <c r="D126" t="s">
-        <v>166</v>
+        <v>97</v>
+      </c>
+      <c r="E126" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="B127">
-        <v>2014</v>
+        <v>1980</v>
       </c>
       <c r="C127">
         <v>2015</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B128">
-        <v>2015</v>
+        <v>1977</v>
       </c>
       <c r="C128">
         <v>2015</v>
       </c>
       <c r="D128" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>4</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129">
+        <v>1974</v>
+      </c>
+      <c r="C129">
+        <v>2021</v>
+      </c>
+      <c r="E129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130">
+        <v>1968</v>
+      </c>
+      <c r="C130">
+        <v>2017</v>
+      </c>
+      <c r="E130" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131">
+        <v>1965</v>
+      </c>
+      <c r="C131">
+        <v>2012</v>
+      </c>
+      <c r="D131" t="s">
+        <v>119</v>
+      </c>
+      <c r="E131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132">
+        <v>1937</v>
+      </c>
+      <c r="C132">
+        <v>2019</v>
+      </c>
+      <c r="D132" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E117">
-    <sortCondition descending="1" ref="C1:C117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E132">
+    <sortCondition descending="1" ref="B106:B132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/_data/movies_list.xlsx
+++ b/_data/movies_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Github Websites\poonos\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7F936C-8986-4E13-878A-06BEC78CE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63248533-2739-4488-811C-4E14058686DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="191">
   <si>
     <t>Film</t>
   </si>
@@ -559,6 +559,54 @@
   </si>
   <si>
     <t>In cinemas, at Year 6 Graduation</t>
+  </si>
+  <si>
+    <t>Prince of Egypt</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Trolls</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Dead Poets' Society</t>
+  </si>
+  <si>
+    <t>Charlotte's Web</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Shrek 2</t>
+  </si>
+  <si>
+    <t>At primary school, middle years</t>
+  </si>
+  <si>
+    <t>At primary school, Year 6, rewatched many times on TV</t>
+  </si>
+  <si>
+    <t>Year 11 CE, rewatched in 2020</t>
+  </si>
+  <si>
+    <t>Around Year 6 on DVD, rewatched once on TV</t>
+  </si>
+  <si>
+    <t>Prince Caspian</t>
+  </si>
+  <si>
+    <t>Narnia</t>
+  </si>
+  <si>
+    <t>The Voyage of the Dawn Treader</t>
   </si>
 </sst>
 </file>
@@ -919,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E819B72-1A8B-4A63-9C2E-B064374829C1}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,13 +1413,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="B28">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C28">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1379,7 +1427,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2016</v>
@@ -1387,16 +1435,13 @@
       <c r="C29">
         <v>2016</v>
       </c>
-      <c r="D29" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>2016</v>
@@ -1413,7 +1458,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>2016</v>
@@ -1430,7 +1475,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>2016</v>
@@ -1438,50 +1483,50 @@
       <c r="C32">
         <v>2016</v>
       </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>2016</v>
       </c>
       <c r="C33">
-        <v>2019</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
+        <v>2016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34">
         <v>2016</v>
       </c>
       <c r="C34">
-        <v>2016</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
+        <v>2019</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="B35">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C35">
-        <v>2015</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
+        <v>2016</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1489,24 +1534,24 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="B36">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C36">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>2015</v>
@@ -1515,7 +1560,7 @@
         <v>2015</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1523,7 +1568,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2015</v>
@@ -1531,13 +1576,16 @@
       <c r="C38">
         <v>2015</v>
       </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
       <c r="E38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -1545,13 +1593,16 @@
       <c r="C39">
         <v>2015</v>
       </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>2015</v>
@@ -1559,50 +1610,44 @@
       <c r="C40">
         <v>2015</v>
       </c>
-      <c r="D40" t="s">
-        <v>157</v>
-      </c>
       <c r="E40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B41">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C41">
-        <v>2014</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
+        <v>2015</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="B42">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C42">
         <v>2015</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -1610,27 +1655,33 @@
       <c r="C43">
         <v>2014</v>
       </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
       <c r="E43" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>2014</v>
       </c>
       <c r="C44">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>2014</v>
@@ -1638,64 +1689,58 @@
       <c r="C45">
         <v>2014</v>
       </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>2014</v>
       </c>
       <c r="C46">
-        <v>2015</v>
-      </c>
-      <c r="D46" t="s">
-        <v>157</v>
+        <v>2014</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="B47">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C47">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B48">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C48">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>2013</v>
@@ -1703,247 +1748,250 @@
       <c r="C49">
         <v>2015</v>
       </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>2013</v>
       </c>
       <c r="C50">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="B51">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C51">
-        <v>2017</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
+        <v>2015</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B52">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C52">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>2012</v>
       </c>
       <c r="C53">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>45</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B54">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C54">
-        <v>2017</v>
+        <v>2012</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="B55">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C55">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B56">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C56">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>2011</v>
       </c>
       <c r="C57">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="B58">
         <v>2011</v>
       </c>
       <c r="C58">
-        <v>2011</v>
+        <v>2017</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2011</v>
       </c>
       <c r="C59">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B60">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C60">
-        <v>2019</v>
+        <v>2011</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B61">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C61">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C62">
-        <v>2016</v>
-      </c>
-      <c r="D62" t="s">
-        <v>85</v>
+        <v>2011</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>2010</v>
       </c>
       <c r="C63">
-        <v>2012</v>
-      </c>
-      <c r="D63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" t="s">
-        <v>141</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B64">
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>2010</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C65">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
       </c>
       <c r="E65" t="s">
         <v>141</v>
@@ -1951,16 +1999,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B66">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C66">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
         <v>141</v>
@@ -1968,47 +2016,44 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C67">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D67" t="s">
         <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="B68">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C68">
-        <v>2009</v>
-      </c>
-      <c r="E68" t="s">
-        <v>143</v>
+        <v>2013</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="B69">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C69">
-        <v>2017</v>
-      </c>
-      <c r="D69" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="E69" t="s">
         <v>141</v>
@@ -2016,27 +2061,30 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B70">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C70">
         <v>2016</v>
       </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C71">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D71" t="s">
         <v>119</v>
@@ -2047,640 +2095,631 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C72">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C73">
-        <v>2014</v>
+        <v>2017</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B74">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C74">
         <v>2016</v>
       </c>
-      <c r="D74" t="s">
-        <v>85</v>
-      </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B75">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C75">
-        <v>2014</v>
+        <v>2008</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B76">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C76">
-        <v>2010</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
+        <v>2008</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B77">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C77">
-        <v>2020</v>
-      </c>
-      <c r="E77" t="s">
-        <v>110</v>
+        <v>2015</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B78">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C78">
-        <v>2019</v>
-      </c>
-      <c r="D78" t="s">
-        <v>119</v>
+        <v>2014</v>
+      </c>
+      <c r="E78" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B79">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C79">
-        <v>2019</v>
+        <v>2016</v>
+      </c>
+      <c r="D79" t="s">
+        <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C80">
-        <v>2018</v>
-      </c>
-      <c r="D80" t="s">
-        <v>45</v>
+        <v>2014</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B81">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C81">
-        <v>2013</v>
+        <v>2010</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="B82">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C82">
-        <v>2009</v>
-      </c>
-      <c r="E82" t="s">
-        <v>167</v>
+        <v>2019</v>
+      </c>
+      <c r="D82" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C83">
         <v>2020</v>
       </c>
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B84">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C84">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B85">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C85">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B86">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C86">
-        <v>2015</v>
+        <v>2018</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C87">
-        <v>2012</v>
-      </c>
-      <c r="D87" t="s">
-        <v>85</v>
+        <v>2013</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B88">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C88">
-        <v>2018</v>
-      </c>
-      <c r="D88" t="s">
-        <v>119</v>
+        <v>2009</v>
       </c>
       <c r="E88" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B89">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C89">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E89" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="B90">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C90">
-        <v>2014</v>
-      </c>
-      <c r="E90" t="s">
-        <v>173</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C91">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B92">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C92">
-        <v>2012</v>
-      </c>
-      <c r="D92" t="s">
-        <v>125</v>
+        <v>2015</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B93">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C93">
-        <v>2020</v>
+        <v>2015</v>
+      </c>
+      <c r="D93" t="s">
+        <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C94">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D94" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="E94" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B95">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C95">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="D95" t="s">
         <v>119</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B96">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C96">
-        <v>2012</v>
-      </c>
-      <c r="D96" t="s">
-        <v>85</v>
+        <v>2017</v>
+      </c>
+      <c r="E96" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B97">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C97">
-        <v>2018</v>
-      </c>
-      <c r="D97" t="s">
-        <v>81</v>
+        <v>2014</v>
+      </c>
+      <c r="E97" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C98">
         <v>2012</v>
       </c>
+      <c r="D98" t="s">
+        <v>85</v>
+      </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B99">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C99">
         <v>2012</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B100">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C100">
-        <v>2019</v>
-      </c>
-      <c r="D100" t="s">
-        <v>74</v>
+        <v>2020</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="B101">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C101">
-        <v>2018</v>
-      </c>
-      <c r="D101" t="s">
-        <v>81</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B102">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C102">
-        <v>2017</v>
-      </c>
-      <c r="E102" t="s">
-        <v>106</v>
+        <v>2019</v>
+      </c>
+      <c r="D102" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B103">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C103">
-        <v>2016</v>
+        <v>2010</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="B104">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C104">
-        <v>2015</v>
-      </c>
-      <c r="E104" t="s">
-        <v>141</v>
+        <v>2012</v>
+      </c>
+      <c r="D104" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B105">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C105">
-        <v>2010</v>
-      </c>
-      <c r="E105" t="s">
-        <v>167</v>
+        <v>2018</v>
+      </c>
+      <c r="D105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B106">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="C106">
-        <v>2010</v>
-      </c>
-      <c r="D106" t="s">
-        <v>119</v>
+        <v>2012</v>
       </c>
       <c r="E106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B107">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C107">
-        <v>2016</v>
+        <v>2012</v>
+      </c>
+      <c r="D107" t="s">
+        <v>85</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B108">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C108">
-        <v>2015</v>
-      </c>
-      <c r="E108" t="s">
-        <v>108</v>
+        <v>2019</v>
+      </c>
+      <c r="D108" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B109">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C109">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
-      </c>
-      <c r="E109" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C110">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B111">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C111">
-        <v>2017</v>
-      </c>
-      <c r="E111" t="s">
-        <v>107</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="B112">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="C112">
-        <v>2009</v>
-      </c>
-      <c r="D112" t="s">
-        <v>119</v>
+        <v>2015</v>
       </c>
       <c r="E112" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="B113">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="C113">
-        <v>2012</v>
-      </c>
-      <c r="D113" t="s">
-        <v>119</v>
+        <v>2011</v>
       </c>
       <c r="E113" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B114">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="C114">
-        <v>2012</v>
-      </c>
-      <c r="D114" t="s">
-        <v>119</v>
+        <v>2010</v>
       </c>
       <c r="E114" t="s">
         <v>167</v>
@@ -2688,10 +2727,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B115">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="C115">
         <v>2010</v>
@@ -2705,222 +2744,222 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B116">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="C116">
-        <v>2020</v>
-      </c>
-      <c r="D116" t="s">
-        <v>125</v>
+        <v>2016</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B117">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="C117">
         <v>2015</v>
       </c>
-      <c r="D117" t="s">
-        <v>95</v>
-      </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="B118">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="C118">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D118" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B119">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="C119">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D119" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>1986</v>
+        <v>1997</v>
       </c>
       <c r="C120">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B121">
-        <v>1986</v>
+        <v>1996</v>
       </c>
       <c r="C121">
-        <v>2008</v>
-      </c>
-      <c r="D121" t="s">
-        <v>74</v>
+        <v>2017</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B122">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="C122">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D122" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B123">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="C123">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>119</v>
+      </c>
+      <c r="E123" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B124">
-        <v>1982</v>
+        <v>1992</v>
       </c>
       <c r="C124">
         <v>2012</v>
       </c>
+      <c r="D124" t="s">
+        <v>119</v>
+      </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B125">
-        <v>1981</v>
+        <v>1991</v>
       </c>
       <c r="C125">
-        <v>2017</v>
+        <v>2010</v>
+      </c>
+      <c r="D125" t="s">
+        <v>119</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B126">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="C126">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D126" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B127">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="C127">
         <v>2015</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E127" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B128">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="C128">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="B129">
-        <v>1974</v>
+        <v>1989</v>
       </c>
       <c r="C129">
-        <v>2021</v>
+        <v>2015</v>
+      </c>
+      <c r="D129" t="s">
+        <v>95</v>
       </c>
       <c r="E129" t="s">
         <v>141</v>
@@ -2928,52 +2967,221 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B130">
-        <v>1968</v>
+        <v>1989</v>
       </c>
       <c r="C130">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B131">
-        <v>1965</v>
+        <v>1986</v>
       </c>
       <c r="C131">
-        <v>2012</v>
-      </c>
-      <c r="D131" t="s">
-        <v>119</v>
+        <v>2017</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132">
+        <v>1986</v>
+      </c>
+      <c r="C132">
+        <v>2008</v>
+      </c>
+      <c r="D132" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133">
+        <v>1985</v>
+      </c>
+      <c r="C133">
+        <v>2015</v>
+      </c>
+      <c r="D133" t="s">
+        <v>95</v>
+      </c>
+      <c r="E133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134">
+        <v>1983</v>
+      </c>
+      <c r="C134">
+        <v>2016</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135">
+        <v>1982</v>
+      </c>
+      <c r="C135">
+        <v>2012</v>
+      </c>
+      <c r="E135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136">
+        <v>1981</v>
+      </c>
+      <c r="C136">
+        <v>2017</v>
+      </c>
+      <c r="E136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>94</v>
+      </c>
+      <c r="B137">
+        <v>1981</v>
+      </c>
+      <c r="C137">
+        <v>2015</v>
+      </c>
+      <c r="D137" t="s">
+        <v>97</v>
+      </c>
+      <c r="E137" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138">
+        <v>1980</v>
+      </c>
+      <c r="C138">
+        <v>2015</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139">
+        <v>1977</v>
+      </c>
+      <c r="C139">
+        <v>2015</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140">
+        <v>1974</v>
+      </c>
+      <c r="C140">
+        <v>2021</v>
+      </c>
+      <c r="E140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141">
+        <v>1968</v>
+      </c>
+      <c r="C141">
+        <v>2017</v>
+      </c>
+      <c r="E141" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>78</v>
+      </c>
+      <c r="B142">
+        <v>1965</v>
+      </c>
+      <c r="C142">
+        <v>2012</v>
+      </c>
+      <c r="D142" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>71</v>
       </c>
-      <c r="B132">
+      <c r="B143">
         <v>1937</v>
       </c>
-      <c r="C132">
+      <c r="C143">
         <v>2019</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D143" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E132">
-    <sortCondition descending="1" ref="B106:B132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E143">
+    <sortCondition descending="1" ref="B1:B143"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/_data/movies_list.xlsx
+++ b/_data/movies_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Github Websites\poonos\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63248533-2739-4488-811C-4E14058686DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCDA577-3048-46D3-977A-AC349700C40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2FBB4052-881D-499B-A46D-94FD57B43165}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="193">
   <si>
     <t>Film</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>The Voyage of the Dawn Treader</t>
+  </si>
+  <si>
+    <t>The Avengers</t>
+  </si>
+  <si>
+    <t>Avengers: Age of Ultron</t>
   </si>
 </sst>
 </file>
@@ -967,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E819B72-1A8B-4A63-9C2E-B064374829C1}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,21 +1622,18 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="B41">
         <v>2015</v>
       </c>
       <c r="C41">
-        <v>2015</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="B42">
         <v>2015</v>
@@ -1638,64 +1641,64 @@
       <c r="C42">
         <v>2015</v>
       </c>
-      <c r="D42" t="s">
-        <v>157</v>
-      </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B43">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C43">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>2014</v>
       </c>
       <c r="C44">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D44" t="s">
         <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>2014</v>
       </c>
       <c r="C45">
-        <v>2014</v>
+        <v>2015</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>2014</v>
@@ -1704,12 +1707,12 @@
         <v>2014</v>
       </c>
       <c r="E46" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>2014</v>
@@ -1717,78 +1720,78 @@
       <c r="C47">
         <v>2014</v>
       </c>
-      <c r="D47" t="s">
-        <v>119</v>
-      </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B48">
         <v>2014</v>
       </c>
       <c r="C48">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B49">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C49">
         <v>2015</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>2013</v>
       </c>
       <c r="C50">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2013</v>
       </c>
       <c r="C51">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>2013</v>
@@ -1796,154 +1799,151 @@
       <c r="C52">
         <v>2015</v>
       </c>
-      <c r="D52" t="s">
-        <v>157</v>
+      <c r="E52" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="B53">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C53">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>2012</v>
       </c>
       <c r="C54">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
       <c r="C55">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B56">
         <v>2012</v>
       </c>
       <c r="C56">
-        <v>2014</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" t="s">
-        <v>185</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B57">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C57">
-        <v>2017</v>
-      </c>
-      <c r="E57" t="s">
-        <v>54</v>
+        <v>2015</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="B58">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C58">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D58" t="s">
         <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>2011</v>
       </c>
       <c r="C59">
-        <v>2013</v>
-      </c>
-      <c r="D59" t="s">
-        <v>85</v>
+        <v>2017</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B60">
         <v>2011</v>
       </c>
       <c r="C60">
-        <v>2011</v>
+        <v>2017</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>2011</v>
       </c>
       <c r="C61">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="D61" t="s">
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>2011</v>
@@ -1952,271 +1952,268 @@
         <v>2011</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B63">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C63">
-        <v>2019</v>
+        <v>2011</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B64">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>2010</v>
       </c>
       <c r="C65">
-        <v>2016</v>
-      </c>
-      <c r="D65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" t="s">
-        <v>141</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B66">
         <v>2010</v>
       </c>
       <c r="C66">
-        <v>2012</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>2010</v>
       </c>
       <c r="C67">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>2010</v>
       </c>
       <c r="C68">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B69">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C69">
-        <v>2018</v>
+        <v>2010</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="B70">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C70">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B71">
         <v>2009</v>
       </c>
       <c r="C71">
-        <v>2009</v>
-      </c>
-      <c r="D71" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B72">
         <v>2009</v>
       </c>
       <c r="C72">
-        <v>2009</v>
+        <v>2016</v>
+      </c>
+      <c r="D72" t="s">
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C73">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="D73" t="s">
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C74">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B75">
         <v>2008</v>
       </c>
       <c r="C75">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="D75" t="s">
         <v>119</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>2008</v>
       </c>
       <c r="C76">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="B77">
         <v>2008</v>
       </c>
       <c r="C77">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>119</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B78">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C78">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="B79">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C79">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B80">
         <v>2007</v>
@@ -2225,60 +2222,63 @@
         <v>2014</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>2007</v>
       </c>
       <c r="C81">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="B82">
         <v>2007</v>
       </c>
       <c r="C82">
-        <v>2019</v>
-      </c>
-      <c r="D82" t="s">
-        <v>119</v>
+        <v>2014</v>
+      </c>
+      <c r="E82" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B83">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C83">
-        <v>2020</v>
+        <v>2010</v>
+      </c>
+      <c r="D83" t="s">
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="B84">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C84">
         <v>2019</v>
@@ -2289,319 +2289,319 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B85">
         <v>2006</v>
       </c>
       <c r="C85">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E85" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B86">
         <v>2006</v>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>2006</v>
       </c>
       <c r="C87">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B88">
         <v>2006</v>
       </c>
       <c r="C88">
-        <v>2009</v>
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>2006</v>
       </c>
       <c r="C89">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B90">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C90">
-        <v>2020</v>
+        <v>2009</v>
+      </c>
+      <c r="E90" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="B91">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C91">
-        <v>2017</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
+        <v>2014</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>2005</v>
       </c>
       <c r="C92">
-        <v>2015</v>
-      </c>
-      <c r="E92" t="s">
-        <v>112</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B94">
         <v>2005</v>
       </c>
       <c r="C94">
-        <v>2012</v>
-      </c>
-      <c r="D94" t="s">
-        <v>85</v>
+        <v>2015</v>
       </c>
       <c r="E94" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="B95">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C95">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D95" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B96">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C96">
-        <v>2017</v>
+        <v>2012</v>
+      </c>
+      <c r="D96" t="s">
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B97">
         <v>2004</v>
       </c>
       <c r="C97">
-        <v>2014</v>
+        <v>2018</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B98">
         <v>2004</v>
       </c>
       <c r="C98">
-        <v>2012</v>
-      </c>
-      <c r="D98" t="s">
-        <v>85</v>
+        <v>2017</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B99">
         <v>2004</v>
       </c>
       <c r="C99">
-        <v>2012</v>
-      </c>
-      <c r="D99" t="s">
-        <v>125</v>
+        <v>2014</v>
       </c>
       <c r="E99" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B100">
         <v>2004</v>
       </c>
       <c r="C100">
-        <v>2020</v>
+        <v>2012</v>
+      </c>
+      <c r="D100" t="s">
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="B101">
         <v>2004</v>
       </c>
       <c r="C101">
-        <v>2015</v>
+        <v>2012</v>
+      </c>
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="B102">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C102">
-        <v>2019</v>
-      </c>
-      <c r="D102" t="s">
-        <v>81</v>
+        <v>2020</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="B103">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C103">
-        <v>2010</v>
-      </c>
-      <c r="D103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E103" t="s">
-        <v>167</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B104">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C104">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D104" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B105">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C105">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>119</v>
+      </c>
+      <c r="E105" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B106">
         <v>2002</v>
@@ -2609,340 +2609,334 @@
       <c r="C106">
         <v>2012</v>
       </c>
-      <c r="E106" t="s">
-        <v>166</v>
+      <c r="D106" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B107">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C107">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="B108">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C108">
-        <v>2019</v>
-      </c>
-      <c r="D108" t="s">
-        <v>74</v>
+        <v>2012</v>
+      </c>
+      <c r="E108" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B109">
         <v>2001</v>
       </c>
       <c r="C109">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="E109" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B110">
         <v>2001</v>
       </c>
       <c r="C110">
-        <v>2017</v>
-      </c>
-      <c r="E110" t="s">
-        <v>106</v>
+        <v>2019</v>
+      </c>
+      <c r="D110" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B111">
         <v>2001</v>
       </c>
       <c r="C111">
-        <v>2016</v>
+        <v>2018</v>
+      </c>
+      <c r="D111" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B112">
         <v>2001</v>
       </c>
       <c r="C112">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E112" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="B113">
         <v>2001</v>
       </c>
       <c r="C113">
-        <v>2011</v>
-      </c>
-      <c r="E113" t="s">
-        <v>184</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B114">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C114">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E114" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B115">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C115">
-        <v>2010</v>
-      </c>
-      <c r="D115" t="s">
-        <v>119</v>
+        <v>2011</v>
       </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="B116">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C116">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E116" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B117">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C117">
-        <v>2015</v>
+        <v>2010</v>
+      </c>
+      <c r="D117" t="s">
+        <v>119</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B118">
         <v>1998</v>
       </c>
       <c r="C118">
-        <v>2012</v>
-      </c>
-      <c r="D118" t="s">
-        <v>119</v>
+        <v>2016</v>
       </c>
       <c r="E118" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="B119">
         <v>1998</v>
       </c>
       <c r="C119">
-        <v>2019</v>
-      </c>
-      <c r="D119" t="s">
-        <v>119</v>
+        <v>2015</v>
+      </c>
+      <c r="E119" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B120">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C120">
-        <v>2018</v>
+        <v>2012</v>
+      </c>
+      <c r="D120" t="s">
+        <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B121">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C121">
-        <v>2017</v>
-      </c>
-      <c r="E121" t="s">
-        <v>107</v>
+        <v>2019</v>
+      </c>
+      <c r="D121" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C122">
-        <v>2009</v>
-      </c>
-      <c r="D122" t="s">
-        <v>119</v>
+        <v>2018</v>
       </c>
       <c r="E122" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B123">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C123">
-        <v>2012</v>
-      </c>
-      <c r="D123" t="s">
-        <v>119</v>
+        <v>2017</v>
       </c>
       <c r="E123" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B124">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="C124">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D124" t="s">
         <v>119</v>
       </c>
       <c r="E124" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B125">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="C125">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D125" t="s">
         <v>119</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B126">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C126">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E126" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B127">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C127">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D127" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B128">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C128">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D128" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
         <v>141</v>
@@ -2950,10 +2944,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B129">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C129">
         <v>2015</v>
@@ -2967,154 +2961,154 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B130">
         <v>1989</v>
       </c>
       <c r="C130">
-        <v>2019</v>
+        <v>2017</v>
+      </c>
+      <c r="D130" t="s">
+        <v>97</v>
       </c>
       <c r="E130" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B131">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C131">
-        <v>2017</v>
+        <v>2015</v>
+      </c>
+      <c r="D131" t="s">
+        <v>95</v>
       </c>
       <c r="E131" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="B132">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C132">
-        <v>2008</v>
-      </c>
-      <c r="D132" t="s">
-        <v>74</v>
+        <v>2019</v>
       </c>
       <c r="E132" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B133">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C133">
-        <v>2015</v>
-      </c>
-      <c r="D133" t="s">
-        <v>95</v>
+        <v>2017</v>
       </c>
       <c r="E133" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B134">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="C134">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="E134" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B135">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="C135">
-        <v>2012</v>
+        <v>2015</v>
+      </c>
+      <c r="D135" t="s">
+        <v>95</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B136">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C136">
-        <v>2017</v>
-      </c>
-      <c r="E136" t="s">
-        <v>102</v>
+        <v>2016</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B137">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C137">
-        <v>2015</v>
-      </c>
-      <c r="D137" t="s">
-        <v>97</v>
+        <v>2012</v>
       </c>
       <c r="E137" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B138">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C138">
-        <v>2015</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
+        <v>2017</v>
       </c>
       <c r="E138" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B139">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="C139">
         <v>2015</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E139" t="s">
         <v>112</v>
@@ -3122,66 +3116,100 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B140">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="C140">
-        <v>2021</v>
+        <v>2015</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="B141">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="C141">
-        <v>2017</v>
+        <v>2015</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B142">
-        <v>1965</v>
+        <v>1974</v>
       </c>
       <c r="C142">
-        <v>2012</v>
-      </c>
-      <c r="D142" t="s">
-        <v>119</v>
+        <v>2021</v>
       </c>
       <c r="E142" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143">
+        <v>1968</v>
+      </c>
+      <c r="C143">
+        <v>2017</v>
+      </c>
+      <c r="E143" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144">
+        <v>1965</v>
+      </c>
+      <c r="C144">
+        <v>2012</v>
+      </c>
+      <c r="D144" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>71</v>
       </c>
-      <c r="B143">
+      <c r="B145">
         <v>1937</v>
       </c>
-      <c r="C143">
+      <c r="C145">
         <v>2019</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D145" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E143">
-    <sortCondition descending="1" ref="B1:B143"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E145">
+    <sortCondition descending="1" ref="B1:B145"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
